--- a/biology/Médecine/Maladies_professionnelles_liées_à_l'amiante/Maladies_professionnelles_liées_à_l'amiante.xlsx
+++ b/biology/Médecine/Maladies_professionnelles_liées_à_l'amiante/Maladies_professionnelles_liées_à_l'amiante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladies_professionnelles_li%C3%A9es_%C3%A0_l%27amiante</t>
+          <t>Maladies_professionnelles_liées_à_l'amiante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une affection provoquée par les poussières d'amiante soit reconnue comme maladie professionnelle.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladies_professionnelles_li%C3%A9es_%C3%A0_l%27amiante</t>
+          <t>Maladies_professionnelles_liées_à_l'amiante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maladies_professionnelles_liées_à_l'amiante</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladies_professionnelles_li%C3%A9es_%C3%A0_l%27amiante</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
